--- a/data/scheduling_DNN/predict/0.5/result1.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result1.xlsx
@@ -570,10 +570,10 @@
         <v>1.469604969024658</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.497139036655426</v>
       </c>
       <c r="W2" t="n">
-        <v>1.172183871269226</v>
+        <v>0.9456899762153625</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9576139450073242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.3973061442375183</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09900623559951782</v>
+        <v>0.3139448463916779</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9052128791809082</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8690081834793091</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2807986438274384</v>
+        <v>0.001310779945924878</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9127449989318848</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.403806746006012</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1379148066043854</v>
+        <v>0.2590181529521942</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8934659957885742</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5081548690795898</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1270437389612198</v>
+        <v>0.1484646648168564</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8803379535675049</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.873195469379425</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05655842274427414</v>
+        <v>5.101508213556372e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9409048557281494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5156090259552002</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2886456847190857</v>
+        <v>0.1808765381574631</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8936929702758789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4108293652534485</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1524949073791504</v>
+        <v>0.2331572622060776</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.881087064743042</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4890085458755493</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03940396755933762</v>
+        <v>0.1537255644798279</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8740129470825195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.375304102897644</v>
+        <v>0.403884619474411</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2487105131149292</v>
+        <v>0.2210206389427185</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9498248100280762</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.5298622846603394</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1305107176303864</v>
+        <v>0.1763685196638107</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9320590496063232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8698873519897461</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3034833073616028</v>
+        <v>0.003865320002660155</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9392838478088379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.350454181432724</v>
+        <v>0.5156071782112122</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3467203378677368</v>
+        <v>0.1795019209384918</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9032180309295654</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.3972629308700562</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1503732949495316</v>
+        <v>0.2559905648231506</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9470698833465576</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4098608195781708</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3555661737918854</v>
+        <v>0.2885935604572296</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8911538124084473</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.421653687953949</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05581605434417725</v>
+        <v>0.2204303741455078</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8763668537139893</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8743631839752197</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004395141266286373</v>
+        <v>4.014692422060762e-06</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8848881721496582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.5156005620956421</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1449311673641205</v>
+        <v>0.1363733410835266</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9042701721191406</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.3991927206516266</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04876129329204559</v>
+        <v>0.2551032602787018</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9186079502105713</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4216512143611908</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1475844383239746</v>
+        <v>0.2469660043716431</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5461130142211914</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8769497275352478</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0001354371634079143</v>
+        <v>0.1094529330730438</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5479838848114014</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.5171791315078735</v>
       </c>
       <c r="W23" t="n">
-        <v>0.001783192506991327</v>
+        <v>0.0009489328367635608</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5971319675445557</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8950256705284119</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04526016116142273</v>
+        <v>0.08874066174030304</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5396850109100342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8870158791542053</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0004388808447401971</v>
+        <v>0.1206387355923653</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5460989475250244</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4907809495925903</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0008228071965277195</v>
+        <v>0.003060080809518695</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5273451805114746</v>
       </c>
       <c r="V27" t="n">
-        <v>0.514431357383728</v>
+        <v>0.3973115384578705</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0001667668257141486</v>
+        <v>0.01690874807536602</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5345249176025391</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8836387395858765</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0004260250134393573</v>
+        <v>0.1218804642558098</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5431008338928223</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.5071613788604736</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07438041269779205</v>
+        <v>0.001291644410230219</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5520429611206055</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4286202788352966</v>
       </c>
       <c r="W30" t="n">
-        <v>0.155340701341629</v>
+        <v>0.01523315813392401</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5254662036895752</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.88004070520401</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0001318746653851122</v>
+        <v>0.1257230788469315</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5756039619445801</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8712916374206543</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0156379509717226</v>
+        <v>0.08743119984865189</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5258669853210449</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.877604603767395</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03065280802547932</v>
+        <v>0.1237193495035172</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5430159568786621</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8677191138267517</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02802651189267635</v>
+        <v>0.1054321378469467</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5377190113067627</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8651795387268066</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03433161601424217</v>
+        <v>0.1072303950786591</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5283079147338867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.506008505821228</v>
       </c>
       <c r="W36" t="n">
-        <v>1.412759189634016e-07</v>
+        <v>0.0004972636234015226</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5266439914703369</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8579463362693787</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0805094912648201</v>
+        <v>0.1097612455487251</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5255799293518066</v>
       </c>
       <c r="V38" t="n">
-        <v>0.54131019115448</v>
+        <v>0.397287905216217</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0002474411448929459</v>
+        <v>0.01645884290337563</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5257630348205566</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4070821702480316</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07720494270324707</v>
+        <v>0.01408514752984047</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5748438835144043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.3972731232643127</v>
       </c>
       <c r="W40" t="n">
-        <v>0.006716771051287651</v>
+        <v>0.03153137490153313</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5403299331665039</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8675993084907532</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0006982052582316101</v>
+        <v>0.1071052476763725</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4217770099639893</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4071126878261566</v>
       </c>
       <c r="W42" t="n">
-        <v>0.002605135785415769</v>
+        <v>0.0002150423388229683</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4192249774932861</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8722267746925354</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2794660925865173</v>
+        <v>0.2052106261253357</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3973371982574463</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.5155415534973145</v>
       </c>
       <c r="W44" t="n">
-        <v>3.923845724784769e-05</v>
+        <v>0.01397226937115192</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.396845817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3975889086723328</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06749706715345383</v>
+        <v>5.521844173017598e-07</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3973300457000732</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5085824131965637</v>
       </c>
       <c r="W46" t="n">
-        <v>3.468170689302497e-05</v>
+        <v>0.01237708888947964</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.40260910987854</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4906871318817139</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0007326598861254752</v>
+        <v>0.007757737766951323</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4107708930969238</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4879007041454315</v>
       </c>
       <c r="W48" t="n">
-        <v>0.003075356129556894</v>
+        <v>0.00594900781288743</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3985190391540527</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8709215521812439</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3015637397766113</v>
+        <v>0.2231641411781311</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V50" t="n">
-        <v>0.541418194770813</v>
+        <v>0.5078210234642029</v>
       </c>
       <c r="W50" t="n">
-        <v>0.02049396187067032</v>
+        <v>0.01200338359922171</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3960020542144775</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4189120531082153</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02113794907927513</v>
+        <v>0.0005248680245131254</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3978888988494873</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.3996774256229401</v>
       </c>
       <c r="W52" t="n">
-        <v>0.002774954773485661</v>
+        <v>3.198827926098602e-06</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950610160827637</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.511328399181366</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001960604218766093</v>
+        <v>0.01351810432970524</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3979020118713379</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4902798533439636</v>
       </c>
       <c r="W54" t="n">
-        <v>3.307553197373636e-05</v>
+        <v>0.008533665910363197</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3981389999389648</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8647468686103821</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1479955166578293</v>
+        <v>0.2177229076623917</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3943989276885986</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.5117431282997131</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0122192045673728</v>
+        <v>0.0137696610763669</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3950021266937256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4979516565799713</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1503201276063919</v>
+        <v>0.01059860549867153</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4145150184631348</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4217354357242584</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01000277046114206</v>
+        <v>5.213442636886612e-05</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3956568241119385</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.3972975611686707</v>
       </c>
       <c r="W59" t="n">
-        <v>0.002013254445046186</v>
+        <v>2.692018142624875e-06</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4056699275970459</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4022821187973022</v>
       </c>
       <c r="W60" t="n">
-        <v>0.003013734007254243</v>
+        <v>1.147724833572283e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4059398174285889</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8585731983184814</v>
       </c>
       <c r="W61" t="n">
-        <v>0.008955491706728935</v>
+        <v>0.2048769742250443</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.02625584602356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8844047784805298</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1456122994422913</v>
+        <v>0.02012172527611256</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9517920017242432</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4011217653751373</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2357812225818634</v>
+        <v>0.3032377362251282</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9051640033721924</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.5154039263725281</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1608748286962509</v>
+        <v>0.1519129127264023</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>1.003021001815796</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.872738242149353</v>
       </c>
       <c r="W65" t="n">
-        <v>0.3050966262817383</v>
+        <v>0.01697359792888165</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9027309417724609</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.3973084092140198</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2491335570812225</v>
+        <v>0.2554519474506378</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8939568996429443</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8781029582023621</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1005132049322128</v>
+        <v>0.0002513474610168487</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8873119354248047</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4869967401027679</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08913452923297882</v>
+        <v>0.160252258181572</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8788712024688721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4055304825305939</v>
       </c>
       <c r="W69" t="n">
-        <v>0.04268683865666389</v>
+        <v>0.2240514308214188</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8773040771484375</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5167297124862671</v>
       </c>
       <c r="W70" t="n">
-        <v>0.004982698243111372</v>
+        <v>0.1300138682126999</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8974218368530273</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8776534795761108</v>
       </c>
       <c r="W71" t="n">
-        <v>0.146941602230072</v>
+        <v>0.0003907879581674933</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8843009471893311</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4906869828701019</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04503179341554642</v>
+        <v>0.1549319475889206</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8786149024963379</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8548479676246643</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2412434220314026</v>
+        <v>0.000564867164939642</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9318070411682129</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.875153124332428</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2789250016212463</v>
+        <v>0.003209666348993778</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8818371295928955</v>
       </c>
       <c r="V75" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8753947019577026</v>
       </c>
       <c r="W75" t="n">
-        <v>0.00484659755602479</v>
+        <v>4.150487438892014e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8789389133453369</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.397581934928894</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1423970460891724</v>
+        <v>0.2317045480012894</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9003469944000244</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8825817108154297</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1317452192306519</v>
+        <v>0.0003156053135171533</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9369490146636963</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4901361465454102</v>
       </c>
       <c r="W78" t="n">
-        <v>0.0647248849272728</v>
+        <v>0.1996417343616486</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8839180469512939</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4208195805549622</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2842326164245605</v>
+        <v>0.2144601941108704</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740348815917969</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.397300124168396</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1292624920606613</v>
+        <v>0.2272760272026062</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.878889799118042</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.3996458351612091</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2258227467536926</v>
+        <v>0.2296747714281082</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6107220649719238</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8769572377204895</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01134954486042261</v>
+        <v>0.07088116556406021</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5351009368896484</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.3997118771076202</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02372490800917149</v>
+        <v>0.01833019778132439</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5319771766662598</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8697088360786438</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01523494627326727</v>
+        <v>0.114062674343586</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5300149917602539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8653252124786377</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0009084473131224513</v>
+        <v>0.1124329417943954</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5222859382629395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4882400631904602</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0003619040653575212</v>
+        <v>0.001159121631644666</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5271379947662354</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8801319003105164</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1724600344896317</v>
+        <v>0.124604694545269</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5315499305725098</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4869219064712524</v>
       </c>
       <c r="W88" t="n">
-        <v>0.006913317833095789</v>
+        <v>0.001991660567000508</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5334780216217041</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4226932227611542</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0008474137866869569</v>
+        <v>0.01227327156811953</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5340180397033691</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8582102656364441</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02207529544830322</v>
+        <v>0.1051006019115448</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.531419038772583</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.5086439847946167</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01254327688366175</v>
+        <v>0.0005187030765227973</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5320870876312256</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4102582335472107</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01651285961270332</v>
+        <v>0.01484226994216442</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.535567045211792</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4012258052825928</v>
       </c>
       <c r="W93" t="n">
-        <v>0.06135982647538185</v>
+        <v>0.01804756931960583</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5251190662384033</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4102367162704468</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001329099992290139</v>
+        <v>0.01319795474410057</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5292398929595947</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8685199618339539</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0002429927262710407</v>
+        <v>0.1151109635829926</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5305531024932861</v>
       </c>
       <c r="V96" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4205082654953003</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0223118644207716</v>
+        <v>0.01210986636579037</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5304639339447021</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.5075618028640747</v>
       </c>
       <c r="W97" t="n">
-        <v>0.07924975454807281</v>
+        <v>0.0005245076026767492</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5783541202545166</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5082274675369263</v>
       </c>
       <c r="W98" t="n">
-        <v>0.00405958341434598</v>
+        <v>0.004917747341096401</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5288350582122803</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4820702970027924</v>
       </c>
       <c r="W99" t="n">
-        <v>8.581713473176933e-07</v>
+        <v>0.002186942845582962</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300018787384033</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4037841856479645</v>
       </c>
       <c r="W100" t="n">
-        <v>0.08443460613489151</v>
+        <v>0.0159309059381485</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5334467887878418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.534324586391449</v>
+        <v>0.5181689262390137</v>
       </c>
       <c r="W101" t="n">
-        <v>7.705286293457903e-07</v>
+        <v>0.000233413084060885</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4135949611663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4017015397548676</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1370446234941483</v>
+        <v>0.0001414534781360999</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4203581809997559</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8805956840515137</v>
       </c>
       <c r="W103" t="n">
-        <v>0.004887969233095646</v>
+        <v>0.2118185609579086</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4076690673828125</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4201757609844208</v>
       </c>
       <c r="W104" t="n">
-        <v>1.847358544182498e-05</v>
+        <v>0.0001564173871884122</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4117300510406494</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8696487545967102</v>
       </c>
       <c r="W105" t="n">
-        <v>0.138518825173378</v>
+        <v>0.2096895426511765</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3982830047607422</v>
       </c>
       <c r="V106" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4069072306156158</v>
       </c>
       <c r="W106" t="n">
-        <v>0.002256152220070362</v>
+        <v>7.437726890202612e-05</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3995699882507324</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8595468997955322</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1667952835559845</v>
+        <v>0.211578756570816</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8816384673118591</v>
       </c>
       <c r="W108" t="n">
-        <v>0.09125832468271255</v>
+        <v>0.2357730269432068</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4147820472717285</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3990399241447449</v>
       </c>
       <c r="W109" t="n">
-        <v>0.000122650119010359</v>
+        <v>0.000247814430622384</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3983039855957031</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4038313329219818</v>
       </c>
       <c r="W110" t="n">
-        <v>0.06465169787406921</v>
+        <v>3.055156776099466e-05</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.4013969898223877</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.3996706008911133</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1636253744363785</v>
+        <v>2.980418685183395e-06</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4056260585784912</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4037972986698151</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01608533039689064</v>
+        <v>3.344362767165876e-06</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3991959095001221</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.86984783411026</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0003648900892585516</v>
+        <v>0.2215132415294647</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.401115894317627</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8691220283508301</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06337565928697586</v>
+        <v>0.2190297394990921</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3997581005096436</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4208130836486816</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01893508993089199</v>
+        <v>0.0004433123103808612</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4026870727539062</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.409671425819397</v>
       </c>
       <c r="W116" t="n">
-        <v>0.2929796874523163</v>
+        <v>4.878118852502666e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.4104290008544922</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4878436625003815</v>
       </c>
       <c r="W117" t="n">
-        <v>4.679974153987132e-05</v>
+        <v>0.005993030034005642</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4057800769805908</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5265767574310303</v>
       </c>
       <c r="W118" t="n">
-        <v>4.66719984615338e-06</v>
+        <v>0.01459183823317289</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3966670036315918</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5064425468444824</v>
       </c>
       <c r="W119" t="n">
-        <v>0.06672655791044235</v>
+        <v>0.01205066964030266</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4050350189208984</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8693172335624695</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01669764146208763</v>
+        <v>0.2155579775571823</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4038529396057129</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4864643812179565</v>
       </c>
       <c r="W121" t="n">
-        <v>0.06705880165100098</v>
+        <v>0.006824650336056948</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8896141052246094</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8985090255737305</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1485229134559631</v>
+        <v>7.911960710771382e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.906566858291626</v>
       </c>
       <c r="V123" t="n">
-        <v>0.672019362449646</v>
+        <v>0.5123197436332703</v>
       </c>
       <c r="W123" t="n">
-        <v>0.0550125278532505</v>
+        <v>0.155430793762207</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8737847805023193</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4091167151927948</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2735331654548645</v>
+        <v>0.2159164100885391</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9282269477844238</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4913192391395569</v>
       </c>
       <c r="W125" t="n">
-        <v>0.0005454173660837114</v>
+        <v>0.1908883452415466</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8831160068511963</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4011422693729401</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2299463152885437</v>
+        <v>0.2322986871004105</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9013409614562988</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4089547693729401</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2815829813480377</v>
+        <v>0.2424441576004028</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8755838871002197</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.872900664806366</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1824186891317368</v>
+        <v>7.199681931524538e-06</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9365639686584473</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4890109002590179</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2840427458286285</v>
+        <v>0.2003037482500076</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9395790100097656</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.3972722291946411</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1812694668769836</v>
+        <v>0.2940966486930847</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8820738792419434</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.5409280061721802</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1423143744468689</v>
+        <v>0.1163805052638054</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8853549957275391</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3972696661949158</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2644334733486176</v>
+        <v>0.2382272928953171</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9771230220794678</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4998788833618164</v>
       </c>
       <c r="W133" t="n">
-        <v>0.392300933599472</v>
+        <v>0.2277619689702988</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9092328548431396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.5408478975296021</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2556078433990479</v>
+        <v>0.1357074826955795</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8951380252838135</v>
       </c>
       <c r="V135" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4199302196502686</v>
       </c>
       <c r="W135" t="n">
-        <v>0.01246106252074242</v>
+        <v>0.2258224636316299</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8852920532226562</v>
       </c>
       <c r="V136" t="n">
-        <v>0.782903790473938</v>
+        <v>0.5081354975700378</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01048335619270802</v>
+        <v>0.1422470659017563</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9334981441497803</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8637691140174866</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2806987166404724</v>
+        <v>0.004862137604504824</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8817300796508789</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4898346960544586</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1237891316413879</v>
+        <v>0.1535819917917252</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.877946138381958</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4220365583896637</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04891767352819443</v>
+        <v>0.2078535407781601</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8788509368896484</v>
       </c>
       <c r="V140" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.3973122537136078</v>
       </c>
       <c r="W140" t="n">
-        <v>0.00426718732342124</v>
+        <v>0.2318795025348663</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8856711387634277</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.4859809279441833</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1378976702690125</v>
+        <v>0.1597522646188736</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.539654016494751</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8702479004859924</v>
       </c>
       <c r="W142" t="n">
-        <v>5.545964813791215e-05</v>
+        <v>0.1092923134565353</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5301709175109863</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4216426610946655</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01229718048125505</v>
+        <v>0.01177838258445263</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.533066987991333</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5134090185165405</v>
       </c>
       <c r="W144" t="n">
-        <v>2.880384636227973e-05</v>
+        <v>0.0003864357713609934</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5278267860412598</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.4011713266372681</v>
       </c>
       <c r="W145" t="n">
-        <v>8.62217930261977e-05</v>
+        <v>0.01604160480201244</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.530515193939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4901944398880005</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0007527089328505099</v>
+        <v>0.00162576325237751</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5385630130767822</v>
       </c>
       <c r="V147" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8698704838752747</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01336418464779854</v>
+        <v>0.1097646430134773</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5337851047515869</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4876037836074829</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02332765981554985</v>
+        <v>0.002132714493200183</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5306360721588135</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8627133965492249</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01241806428879499</v>
+        <v>0.1102753505110741</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.529973030090332</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3975867927074432</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0002622297324705869</v>
+        <v>0.01752611622214317</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.55051589012146</v>
       </c>
       <c r="V151" t="n">
-        <v>0.946087121963501</v>
+        <v>0.8716562390327454</v>
       </c>
       <c r="W151" t="n">
-        <v>0.1564766019582748</v>
+        <v>0.1031311228871346</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5510158538818359</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8994596004486084</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005323638208210468</v>
+        <v>0.1214130446314812</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5294108390808105</v>
       </c>
       <c r="V153" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4026550352573395</v>
       </c>
       <c r="W153" t="n">
-        <v>0.1706236451864243</v>
+        <v>0.01606703363358974</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5271210670471191</v>
       </c>
       <c r="V154" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.3973207473754883</v>
       </c>
       <c r="W154" t="n">
-        <v>0.07456929981708527</v>
+        <v>0.01684812270104885</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299139022827148</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8650253415107727</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02329226955771446</v>
+        <v>0.1122996732592583</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.583341121673584</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.3973059952259064</v>
       </c>
       <c r="W156" t="n">
-        <v>0.05416432023048401</v>
+        <v>0.03460906818509102</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.532667875289917</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.489172101020813</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0007902808720245957</v>
+        <v>0.001891882391646504</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5350229740142822</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.481586754322052</v>
       </c>
       <c r="W158" t="n">
-        <v>0.07783297449350357</v>
+        <v>0.002855429658666253</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5340468883514404</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8632414937019348</v>
       </c>
       <c r="W159" t="n">
-        <v>5.341044015949592e-05</v>
+        <v>0.1083690896630287</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5316998958587646</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8774399757385254</v>
       </c>
       <c r="W160" t="n">
-        <v>0.001052783336490393</v>
+        <v>0.1195362061262131</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5935299396514893</v>
       </c>
       <c r="V161" t="n">
-        <v>0.504324197769165</v>
+        <v>0.516675591468811</v>
       </c>
       <c r="W161" t="n">
-        <v>0.00795766431838274</v>
+        <v>0.005906590726226568</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4093868732452393</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4210676848888397</v>
       </c>
       <c r="W162" t="n">
-        <v>0.00348283420316875</v>
+        <v>0.0001364413619739935</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4065051078796387</v>
       </c>
       <c r="V163" t="n">
-        <v>0.531548023223877</v>
+        <v>0.3973097205162048</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01563573069870472</v>
+        <v>8.455514762317762e-05</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3991808891296387</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.5090304613113403</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01312664523720741</v>
+        <v>0.0120669286698103</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4052278995513916</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4986870884895325</v>
       </c>
       <c r="W165" t="n">
-        <v>0.07687149196863174</v>
+        <v>0.008734620176255703</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4011631011962891</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4011408984661102</v>
       </c>
       <c r="W166" t="n">
-        <v>0.08371454477310181</v>
+        <v>4.92961227394062e-10</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4490811824798584</v>
       </c>
       <c r="V167" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.5153163075447083</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1108887270092964</v>
+        <v>0.004387091845273972</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4015998840332031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.5156021118164062</v>
       </c>
       <c r="W168" t="n">
-        <v>0.03503543138504028</v>
+        <v>0.01299650780856609</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4047849178314209</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.5147014856338501</v>
       </c>
       <c r="W169" t="n">
-        <v>1.347388547401351e-06</v>
+        <v>0.01208165194839239</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8744325041770935</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06289173662662506</v>
+        <v>0.2226249575614929</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.401104211807251</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.397287905216217</v>
       </c>
       <c r="W171" t="n">
-        <v>0.002532096346840262</v>
+        <v>1.456419613532489e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.5155249834060669</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001068841898813844</v>
+        <v>0.0125737888738513</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4314339160919189</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.5116652250289917</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01118392497301102</v>
+        <v>0.006437062751501799</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4098010063171387</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.3972877562046051</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01557766553014517</v>
+        <v>0.0001565814309287816</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4046478271484375</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8930303454399109</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01763751357793808</v>
+        <v>0.2385174781084061</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4040770530700684</v>
       </c>
       <c r="V176" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4851105809211731</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1441172808408737</v>
+        <v>0.006566432770341635</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4129810333251953</v>
       </c>
       <c r="V177" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.5155152082443237</v>
       </c>
       <c r="W177" t="n">
-        <v>0.1377124339342117</v>
+        <v>0.01051325723528862</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4443020820617676</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4933227300643921</v>
       </c>
       <c r="W178" t="n">
-        <v>0.00487871840596199</v>
+        <v>0.002403023885563016</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4889922142028809</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5059195756912231</v>
       </c>
       <c r="W179" t="n">
-        <v>0.002770501188933849</v>
+        <v>0.0002865355636458844</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4019980430603027</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.498216450214386</v>
       </c>
       <c r="W180" t="n">
-        <v>0.02527885138988495</v>
+        <v>0.009257981553673744</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4092979431152344</v>
       </c>
       <c r="V181" t="n">
-        <v>0.944080114364624</v>
+        <v>0.3975659608840942</v>
       </c>
       <c r="W181" t="n">
-        <v>0.2859919667243958</v>
+        <v>0.0001376394066028297</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.891876220703125</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4056159555912018</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2386510372161865</v>
+        <v>0.2364490479230881</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8808250427246094</v>
       </c>
       <c r="V183" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.8671735525131226</v>
       </c>
       <c r="W183" t="n">
-        <v>0.005319303367286921</v>
+        <v>0.0001863631914602593</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.913067102432251</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4026333093643188</v>
       </c>
       <c r="W184" t="n">
-        <v>0.0677354484796524</v>
+        <v>0.2605426609516144</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8929059505462646</v>
       </c>
       <c r="V185" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.5151470303535461</v>
       </c>
       <c r="W185" t="n">
-        <v>0.01203609630465508</v>
+        <v>0.1427018046379089</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8889675736427307</v>
       </c>
       <c r="W186" t="n">
-        <v>0.08174419403076172</v>
+        <v>0.001501977676525712</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9063000679016113</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8614645004272461</v>
       </c>
       <c r="W187" t="n">
-        <v>0.09367430210113525</v>
+        <v>0.002010228112339973</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8852560520172119</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4055153429508209</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1054053977131844</v>
+        <v>0.2301511466503143</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8886961936950684</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4107708930969238</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1485694050788879</v>
+        <v>0.2284125983715057</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8827528953552246</v>
       </c>
       <c r="V190" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.3975949287414551</v>
       </c>
       <c r="W190" t="n">
-        <v>0.004034178797155619</v>
+        <v>0.2353782504796982</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9401040077209473</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.5177752375602722</v>
       </c>
       <c r="W191" t="n">
-        <v>0.01721621304750443</v>
+        <v>0.1783615946769714</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8825490474700928</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8691650629043579</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2528715431690216</v>
+        <v>0.0001791310496628284</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8858850002288818</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.5001214146614075</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1459265202283859</v>
+        <v>0.1488135457038879</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8831770420074463</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4056596159934998</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2570554912090302</v>
+        <v>0.228022888302803</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9418988227844238</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8884609341621399</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2896858155727386</v>
+        <v>0.002855608006939292</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8837671279907227</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8797056674957275</v>
       </c>
       <c r="W196" t="n">
-        <v>0.005679282359778881</v>
+        <v>1.649546175030991e-05</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8807148933410645</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.5192561149597168</v>
       </c>
       <c r="W197" t="n">
-        <v>0.143578976392746</v>
+        <v>0.130652442574501</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8814489841461182</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4017071723937988</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1441062837839127</v>
+        <v>0.2301522046327591</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9411418437957764</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4810702502727509</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1598045378923416</v>
+        <v>0.2116658687591553</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8811769485473633</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.5077232122421265</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1349499523639679</v>
+        <v>0.1394676864147186</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8956382274627686</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4090341925621033</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1456451416015625</v>
+        <v>0.2367834895849228</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5340750217437744</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5085659623146057</v>
       </c>
       <c r="W202" t="n">
-        <v>5.335121386451647e-05</v>
+        <v>0.0006507121142931283</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5280799865722656</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5105178356170654</v>
       </c>
       <c r="W203" t="n">
-        <v>0.03085331059992313</v>
+        <v>0.000308429152937606</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.55855393409729</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4040116667747498</v>
       </c>
       <c r="W204" t="n">
-        <v>0.009273277595639229</v>
+        <v>0.02388331294059753</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5331411361694336</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.5153244733810425</v>
       </c>
       <c r="W205" t="n">
-        <v>0.003087118035182357</v>
+        <v>0.000317433470627293</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5327358245849609</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.5072509050369263</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0147280627861619</v>
+        <v>0.0006494811386801302</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5310330390930176</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4910873770713806</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01624045334756374</v>
+        <v>0.001595655921846628</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.3972923159599304</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02167105674743652</v>
+        <v>0.01709575019776821</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5312619209289551</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5155425667762756</v>
       </c>
       <c r="W209" t="n">
-        <v>9.807558672036976e-05</v>
+        <v>0.0002470980980433524</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5441038608551025</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5472919940948486</v>
       </c>
       <c r="W210" t="n">
-        <v>0.008755549788475037</v>
+        <v>1.016419355437392e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5353600978851318</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4810618162155151</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01740605756640434</v>
+        <v>0.002948303474113345</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5355451107025146</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8632293939590454</v>
       </c>
       <c r="W212" t="n">
-        <v>0.07388835400342941</v>
+        <v>0.1073769927024841</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.532059907913208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.3975630104541779</v>
       </c>
       <c r="W213" t="n">
-        <v>0.06294544041156769</v>
+        <v>0.01808941550552845</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5883300304412842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4053005576133728</v>
       </c>
       <c r="W214" t="n">
-        <v>0.003217633813619614</v>
+        <v>0.03349978849291801</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5338649749755859</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.3972845673561096</v>
       </c>
       <c r="W215" t="n">
-        <v>0.005525405518710613</v>
+        <v>0.01865420863032341</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5369060039520264</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5154708027839661</v>
       </c>
       <c r="W216" t="n">
-        <v>0.003514691721647978</v>
+        <v>0.000459467846667394</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5312070846557617</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4871383309364319</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0008586002513766289</v>
+        <v>0.001942055067047477</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.879363477230072</v>
       </c>
       <c r="W218" t="n">
-        <v>0.07607411593198776</v>
+        <v>0.1211989298462868</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5899190902709961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4915667772293091</v>
       </c>
       <c r="W219" t="n">
-        <v>0.005697974935173988</v>
+        <v>0.009673177264630795</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5367641448974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.5155878067016602</v>
       </c>
       <c r="W220" t="n">
-        <v>0.00347234564833343</v>
+        <v>0.0004484372911974788</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5353620052337646</v>
       </c>
       <c r="V221" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8800762891769409</v>
       </c>
       <c r="W221" t="n">
-        <v>0.1658212393522263</v>
+        <v>0.1188279390335083</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3991918563842773</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.3997060060501099</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002649487229064107</v>
+        <v>2.643498646648368e-07</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3988630771636963</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8711702823638916</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0111191812902689</v>
+        <v>0.2230740934610367</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4080910682678223</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4056668281555176</v>
       </c>
       <c r="W224" t="n">
-        <v>0.009092207066714764</v>
+        <v>5.876940122107044e-06</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4009909629821777</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.5155451893806458</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06443490833044052</v>
+        <v>0.01312267035245895</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4052519798278809</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8678737282752991</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01195436529815197</v>
+        <v>0.2140188813209534</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4094200134277344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8550782799720764</v>
       </c>
       <c r="W227" t="n">
-        <v>0.003438964486122131</v>
+        <v>0.1986112892627716</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4066460132598877</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4904540777206421</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002943567233160138</v>
+        <v>0.007023791782557964</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4332959651947021</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4069511890411377</v>
       </c>
       <c r="W229" t="n">
-        <v>0.006808956619352102</v>
+        <v>0.0006940472521819174</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4015820026397705</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8694638609886169</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0006662085652351379</v>
+        <v>0.2189134359359741</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4050970077514648</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8679710626602173</v>
       </c>
       <c r="W231" t="n">
-        <v>0.009551882743835449</v>
+        <v>0.2142523974180222</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4173200130462646</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.871681809425354</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05738477036356926</v>
+        <v>0.2064446359872818</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4144260883331299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5156038403511047</v>
       </c>
       <c r="W233" t="n">
-        <v>0.06647109985351562</v>
+        <v>0.01023693755269051</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4076559543609619</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5049289464950562</v>
       </c>
       <c r="W234" t="n">
-        <v>1.64836019393988e-05</v>
+        <v>0.00946203526109457</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4050118923187256</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4976181089878082</v>
       </c>
       <c r="W235" t="n">
-        <v>0.06240091845393181</v>
+        <v>0.00857591163367033</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4071331024169922</v>
       </c>
       <c r="V236" t="n">
-        <v>0.65655517578125</v>
+        <v>0.4087037444114685</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06221137195825577</v>
+        <v>2.466916384946671e-06</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4058289527893066</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8731710314750671</v>
       </c>
       <c r="W237" t="n">
-        <v>0.05545451119542122</v>
+        <v>0.218408614397049</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4014730453491211</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.397280752658844</v>
       </c>
       <c r="W238" t="n">
-        <v>0.005799898412078619</v>
+        <v>1.757531754265074e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043900966644287</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8916298747062683</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06623704731464386</v>
+        <v>0.2374026030302048</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3961811065673828</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.8577015995979309</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0906621515750885</v>
+        <v>0.213001161813736</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4033911228179932</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.5072457790374756</v>
       </c>
       <c r="W241" t="n">
-        <v>1.097364421553948e-08</v>
+        <v>0.01078578922897577</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9586129188537598</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.516278862953186</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1965158432722092</v>
+        <v>0.195659413933754</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9021270275115967</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.8999614119529724</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2484746426343918</v>
+        <v>4.689890829467913e-06</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8979690074920654</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.397293359041214</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2994263768196106</v>
+        <v>0.2506761252880096</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8967618942260742</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8729448914527893</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2981091141700745</v>
+        <v>0.0005672496045008302</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9445419311523438</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5087207555770874</v>
       </c>
       <c r="W246" t="n">
-        <v>0.0180719830095768</v>
+        <v>0.1899400949478149</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8941390514373779</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.899189829826355</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0565481036901474</v>
+        <v>2.551036232034676e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8910861015319824</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8950773477554321</v>
       </c>
       <c r="W248" t="n">
-        <v>0.008283119648694992</v>
+        <v>1.593004708411172e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9741928577423096</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8735929131507874</v>
       </c>
       <c r="W249" t="n">
-        <v>0.09127986431121826</v>
+        <v>0.01012034900486469</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8945090770721436</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8592841625213623</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1436440795660019</v>
+        <v>0.00124079454690218</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9051511287689209</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8821481466293335</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1178006231784821</v>
+        <v>0.0005291372071951628</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8906478881835938</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8687176108360291</v>
       </c>
       <c r="W252" t="n">
-        <v>0.07976283133029938</v>
+        <v>0.000480937073007226</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.905116081237793</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8711658716201782</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1609607189893723</v>
+        <v>0.001152616692706943</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5401339530944824</v>
       </c>
       <c r="W254" t="n">
-        <v>0.03706235438585281</v>
+        <v>0.1221475452184677</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8911221027374268</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8732210993766785</v>
       </c>
       <c r="W255" t="n">
-        <v>0.06145636364817619</v>
+        <v>0.0003204459208063781</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.3990548849105835</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2648011147975922</v>
+        <v>0.2406640201807022</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9598829746246338</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8667996525764465</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2320502251386642</v>
+        <v>0.008664504624903202</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8842358589172363</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8739774823188782</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1746760755777359</v>
+        <v>0.0001052342922776006</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8970301151275635</v>
       </c>
       <c r="V259" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4097838699817657</v>
       </c>
       <c r="W259" t="n">
-        <v>0.002424870384857059</v>
+        <v>0.2374089062213898</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8835229873657227</v>
       </c>
       <c r="V260" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8717285394668579</v>
       </c>
       <c r="W260" t="n">
-        <v>0.01000758819282055</v>
+        <v>0.0001391090045217425</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9493281841278076</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4099634885787964</v>
       </c>
       <c r="W261" t="n">
-        <v>0.3226955235004425</v>
+        <v>0.2909142673015594</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5532999038696289</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8978469967842102</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02247399277985096</v>
+        <v>0.1187127009034157</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493950843811035</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4216529428958893</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03964082896709442</v>
+        <v>0.016318054869771</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5352129936218262</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8926279544830322</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0004622957785613835</v>
+        <v>0.1277454495429993</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5383920669555664</v>
       </c>
       <c r="V265" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8729026317596436</v>
       </c>
       <c r="W265" t="n">
-        <v>0.03537981957197189</v>
+        <v>0.1118973195552826</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5986061096191406</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.5177649855613708</v>
       </c>
       <c r="W266" t="n">
-        <v>0.04983062297105789</v>
+        <v>0.006535287480801344</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5483062267303467</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8990764021873474</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0001969758304767311</v>
+        <v>0.1230397149920464</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5410749912261963</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8643693923950195</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001467185094952583</v>
+        <v>0.1045192703604698</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5398709774017334</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5080293416976929</v>
       </c>
       <c r="W269" t="n">
-        <v>3.013851937794243e-06</v>
+        <v>0.001013889792375267</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5443179607391357</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.410347580909729</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02853910438716412</v>
+        <v>0.01794806309044361</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5771389007568359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4871397018432617</v>
       </c>
       <c r="W271" t="n">
-        <v>0.04235542938113213</v>
+        <v>0.008099855855107307</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6685018539428711</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8582661151885986</v>
       </c>
       <c r="W272" t="n">
-        <v>0.04842991381883621</v>
+        <v>0.03601047396659851</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5557429790496826</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.407001256942749</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01608898863196373</v>
+        <v>0.02212410047650337</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5827388763427734</v>
       </c>
       <c r="V274" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4046236872673035</v>
       </c>
       <c r="W274" t="n">
-        <v>0.04005511105060577</v>
+        <v>0.03172501921653748</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5357298851013184</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.5154294967651367</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02394619397819042</v>
+        <v>0.0004121057572774589</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5934269428253174</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.885772705078125</v>
       </c>
       <c r="W276" t="n">
-        <v>0.03612419217824936</v>
+        <v>0.08546604216098785</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5378849506378174</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5032606720924377</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01097918953746557</v>
+        <v>0.001198840676806867</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5386619567871094</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5112308263778687</v>
       </c>
       <c r="W278" t="n">
-        <v>0.03529749810695648</v>
+        <v>0.0007524669053964317</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.563715934753418</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8994180560112</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01813248172402382</v>
+        <v>0.1126959174871445</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5350220203399658</v>
       </c>
       <c r="V280" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8670060038566589</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01438652910292149</v>
+        <v>0.1102133616805077</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5406160354614258</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4984239637851715</v>
       </c>
       <c r="W281" t="n">
-        <v>5.782629841633025e-07</v>
+        <v>0.001780170947313309</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4551918506622314</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4115417003631592</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01481093093752861</v>
+        <v>0.001905335579067469</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.5286839008331299</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.871679961681366</v>
       </c>
       <c r="W283" t="n">
-        <v>0.006081825587898493</v>
+        <v>0.117646299302578</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4146311283111572</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8701750636100769</v>
       </c>
       <c r="W284" t="n">
-        <v>0.08003766089677811</v>
+        <v>0.2075202763080597</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4117069244384766</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4101683795452118</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05989411100745201</v>
+        <v>2.367120487178909e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.418874979019165</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4067487120628357</v>
       </c>
       <c r="W286" t="n">
-        <v>0.04972274973988533</v>
+        <v>0.0001470463466830552</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4625599384307861</v>
       </c>
       <c r="V287" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8748470544815063</v>
       </c>
       <c r="W287" t="n">
-        <v>0.002695135306566954</v>
+        <v>0.1699806600809097</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4124529361724854</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4906194508075714</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0523948073387146</v>
+        <v>0.006110004149377346</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4440610408782959</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8710213303565979</v>
       </c>
       <c r="W289" t="n">
-        <v>0.009224645793437958</v>
+        <v>0.1822950839996338</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4064319133758545</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8716220855712891</v>
       </c>
       <c r="W290" t="n">
-        <v>7.989337973413058e-06</v>
+        <v>0.2164018899202347</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4111340045928955</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4210376143455505</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0009141565533354878</v>
+        <v>9.808148752199486e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4108929634094238</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8927893042564392</v>
       </c>
       <c r="W292" t="n">
-        <v>0.004476429428905249</v>
+        <v>0.2322240769863129</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4676790237426758</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.3990436792373657</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1139731928706169</v>
+        <v>0.004710810724645853</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4270689487457275</v>
       </c>
       <c r="V294" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8713018894195557</v>
       </c>
       <c r="W294" t="n">
-        <v>0.001536638243123889</v>
+        <v>0.1973429024219513</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4076859951019287</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4098484218120575</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01681765355169773</v>
+        <v>4.676089247368509e-06</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4094829559326172</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3975909352302551</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0277611967176199</v>
+        <v>0.0001414201542502269</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.426353931427002</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4068199694156647</v>
       </c>
       <c r="W297" t="n">
-        <v>0.05214504897594452</v>
+        <v>0.0003815756645053625</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4103739261627197</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4038764834403992</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003550490131601691</v>
+        <v>4.221676135784946e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4647040367126465</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.487432062625885</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01533740200102329</v>
+        <v>0.0005165631882846355</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4139828681945801</v>
       </c>
       <c r="V300" t="n">
-        <v>0.514564037322998</v>
+        <v>0.420332670211792</v>
       </c>
       <c r="W300" t="n">
-        <v>0.01011657156050205</v>
+        <v>4.031998469145037e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141430854797363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.5073930025100708</v>
       </c>
       <c r="W301" t="n">
-        <v>0.2790994346141815</v>
+        <v>0.008695547468960285</v>
       </c>
     </row>
     <row r="302" spans="1:23">
